--- a/public/import/weekly_template (3).xlsx
+++ b/public/import/weekly_template (3).xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EABFB4-9881-49F1-BF6E-783BFE412C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8895"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>year</t>
   </si>
@@ -39,49 +40,43 @@
     <t>NON</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Printout Stok opname &amp; beres  gudang GJKT  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring orderan acc Oraimo TOP-WJO &amp; TOP-CJO </t>
-  </si>
-  <si>
-    <t>Pembuatan sales order ( SO ) di csa CV.TOP</t>
-  </si>
-  <si>
-    <t>Proses pembuatan surat jalan ( SJ ) di csa CV.TOP</t>
-  </si>
-  <si>
-    <t>Proses Packing orderan Grosir &amp; Online</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pembuatan surat serah terima barang orderan Grosir </t>
-  </si>
-  <si>
-    <t>Konfirmasi barang datang dan input pembelian barang datang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring pengiriman Driver JKT, via Rax dan Sentral Cargo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proses alokasi grosir </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rekap Qc orderan Grosir </t>
-  </si>
-  <si>
-    <t>Balance stok oraimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proses SJ / Kirim Blibli JD.ID   </t>
+    <t>Kirim AMPM tepat waktu</t>
+  </si>
+  <si>
+    <t>Monitoring Sinkronisasi ID Jurnal &amp; Moka</t>
+  </si>
+  <si>
+    <t>Monitoring Transaksi Penjualan di ID Jurnal</t>
+  </si>
+  <si>
+    <t>Helpdesk &amp; Monitoring Toko Complete Mulia &amp; Toko Mas An An</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rekap data Customer Toko Mas An An dan Complete Mulia </t>
+  </si>
+  <si>
+    <t>Perbaikan Printer Kitchen Amazy</t>
+  </si>
+  <si>
+    <t>Lengkapi data di ID Jurnal Amazy, Complete Me &amp; Hyangyu untuk migrasi ke MOKA V2</t>
+  </si>
+  <si>
+    <t>Maintenance Server Toko Mas an an</t>
+  </si>
+  <si>
+    <t>Maintenance Tablet Kasir Amazy, Complete Me &amp; Hyangyu</t>
+  </si>
+  <si>
+    <t>Maintenance Printer Kasir Amazy, Complete Me &amp; Hyangyu</t>
+  </si>
+  <si>
+    <t>Maintenance Internet Kasir Amazy, Complete Me &amp; Hyangyu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,9 +104,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,202 +409,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="56.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="9.140625" style="1"/>
+    <col min="3" max="3" width="78.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2023</v>
+      </c>
+      <c r="B3">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2023</v>
+      </c>
+      <c r="B4">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2023</v>
+      </c>
+      <c r="B5">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2023</v>
+      </c>
+      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2023</v>
+      </c>
+      <c r="B7">
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2023</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="A11">
+        <v>2023</v>
+      </c>
+      <c r="B11">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="A12">
+        <v>2023</v>
+      </c>
+      <c r="B12">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="D12" t="s">
         <v>5</v>
       </c>
     </row>
